--- a/biology/Botanique/Joseph_Charles_Bequaert/Joseph_Charles_Bequaert.xlsx
+++ b/biology/Botanique/Joseph_Charles_Bequaert/Joseph_Charles_Bequaert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Charles Bequaert est un naturaliste américain d’origine  belge, né le 24 mai 1886 à Thourout (Belgique) et mort le 19 janvier 1982 à Amherst (Massachusetts).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il obtient un titre de docteur en botanique à l’université de Gand en 1908. Il est entomologiste, de 1910 à 1912, dans la commission belge sur la maladie du sommeil. De 1913 à 1915, il travaille comme botaniste en Congo belge et réalise également des récoltes de mollusques.
 Il émigre en 1916 aux États-Unis d'Amérique. Il est chercheur associé de 1917 à 1922 au sein de l’American Museum of Natural History ; il étudie notamment les fourmis et la myrmécophile. Naturalisé citoyen américain en 1921, il enseigne l’entomologie à la Harvard Medical School. De 1929 à 1956, il est conservateur des insectes au Museum of Comparative Zoology. Il occupe la chaire Agassiz de zoologie de 1951 à 1956 au sein de cette même institution.
@@ -545,9 +559,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste partielle[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste partielle
 1922 : Ants in their diverse relations to the plant world, dans : 	Ants of the American Congo Expedition : A Contribution to the Myrmecology of Africa, Bulletin of the American Museum of Natural History, vol. 45,1922: p. 333-583.
 1938 : A new North American mason-wasp from Virginia (Washington) : p. 79-87.
 1948 : Monograph of the Strophocheilidae, a neotropical family of terrestrial mollusks, The Museum, Cambridge : 210 p.
